--- a/Analysis/LlmDispatchTool/LLM/LlmResponse.xlsx
+++ b/Analysis/LlmDispatchTool/LLM/LlmResponse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oulu study\Period 3\Advanced quality\llm-message-dispatch-tool\Analysis\LlmDispatchTool\Sonarqube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oulu study\Period 3\Advanced quality\llm-message-dispatch-tool\Analysis\LlmDispatchTool\LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A1435-DEED-4454-84BA-2962B78B7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59709C05-8D08-4D4C-9BE2-3E342B6B9762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="5160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues and remediation " sheetId="2" r:id="rId1"/>
@@ -244,6 +244,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Segoe UI"/>
@@ -273,10 +274,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6859E886-5EDB-42FE-8ECB-02818878AC29}">
   <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,363 +575,363 @@
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="172.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="172.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="155.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="172.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="155.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="172.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:7" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="172.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:7" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="189.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:7" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="138" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="138" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="172.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="189.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="172.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="120.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="120.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="155.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="2:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="172.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="2:7" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>65</v>
       </c>
     </row>
